--- a/Шаблон6.xlsx
+++ b/Шаблон6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\VisualStudio\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F97A67-7D01-40DB-8856-3EF838BDC7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EFC05-D144-442F-900B-E77C1EDC5ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="79" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1725,7 +1725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,9 +1762,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1784,227 +1781,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{5A2C5D91-901C-427C-83DA-04E4E272BAB2}"/>
   </cellStyles>
-  <dxfs count="232">
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -2019,542 +1801,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -2587,13 +1833,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0"/>
@@ -2641,23 +1881,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2666,17 +1890,6 @@
       <font>
         <b/>
         <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
       </font>
     </dxf>
     <dxf>
@@ -2736,28 +1949,6 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -2830,11 +2021,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Стиль сводной таблицы 1" table="0" count="5" xr9:uid="{A171F048-ED95-4D32-8F0C-78263D744A5E}">
-      <tableStyleElement type="wholeTable" dxfId="231"/>
-      <tableStyleElement type="totalRow" dxfId="230"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="229"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="228"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="227"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="42"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="41"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2849,7 +2040,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="akim" refreshedDate="44143.901368402781" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{35D20389-7EBB-4015-8A27-FC5259C98B7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ЦУН" refreshedDate="44146.589096759257" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{35D20389-7EBB-4015-8A27-FC5259C98B7D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Диапазон].[Вариант по фазе].[Вариант по фазе]" caption="Вариант по фазе" numFmtId="0" hierarchy="21" level="1">
@@ -2866,11 +2057,6 @@
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Диапазон 1].[Опорная ПС].[Опорная ПС]" caption="Опорная ПС" numFmtId="0" hierarchy="27" level="1">
-      <sharedItems count="1">
-        <s v="ПС Кубачи"/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="[Диапазон].[Вариант установки ПУ 2].[Вариант установки ПУ 2]" caption="Вариант установки ПУ 2" numFmtId="0" hierarchy="25" level="1">
       <sharedItems count="1">
         <s v="Вариант №1.5"/>
@@ -2882,11 +2068,21 @@
         <s v="Фидер №1"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Диапазон].[Опорная ПС].[Опорная ПС]" caption="Опорная ПС" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="1">
+        <s v="ПС Кубачи"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="40">
     <cacheHierarchy uniqueName="[Диапазон].[№ п/п]" caption="№ п/п" attribute="1" defaultMemberUniqueName="[Диапазон].[№ п/п].[All]" allUniqueName="[Диапазон].[№ п/п].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон].[Наименование РЭС]" caption="Наименование РЭС" attribute="1" defaultMemberUniqueName="[Диапазон].[Наименование РЭС].[All]" allUniqueName="[Диапазон].[Наименование РЭС].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Опорная ПС]" caption="Опорная ПС" attribute="1" defaultMemberUniqueName="[Диапазон].[Опорная ПС].[All]" allUniqueName="[Диапазон].[Опорная ПС].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Опорная ПС]" caption="Опорная ПС" attribute="1" defaultMemberUniqueName="[Диапазон].[Опорная ПС].[All]" allUniqueName="[Диапазон].[Опорная ПС].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Диапазон].[ВЛ-6(10)кВ]" caption="ВЛ-6(10)кВ" attribute="1" defaultMemberUniqueName="[Диапазон].[ВЛ-6(10)кВ].[All]" allUniqueName="[Диапазон].[ВЛ-6(10)кВ].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон].[№ ТП]" caption="№ ТП" attribute="1" defaultMemberUniqueName="[Диапазон].[№ ТП].[All]" allUniqueName="[Диапазон].[№ ТП].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон].[№ фидера 0,4кВ]" caption="№ фидера 0,4кВ" attribute="1" defaultMemberUniqueName="[Диапазон].[№ фидера 0,4кВ].[All]" allUniqueName="[Диапазон].[№ фидера 0,4кВ].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -2907,7 +2103,7 @@
     <cacheHierarchy uniqueName="[Диапазон].[Фидер 10кВ]" caption="Фидер 10кВ" attribute="1" defaultMemberUniqueName="[Диапазон].[Фидер 10кВ].[All]" allUniqueName="[Диапазон].[Фидер 10кВ].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Диапазон].[Вариант по фазе]" caption="Вариант по фазе" attribute="1" defaultMemberUniqueName="[Диапазон].[Вариант по фазе].[All]" allUniqueName="[Диапазон].[Вариант по фазе].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
@@ -2922,16 +2118,11 @@
     <cacheHierarchy uniqueName="[Диапазон].[Вариант установки ПУ 2]" caption="Вариант установки ПУ 2" attribute="1" defaultMemberUniqueName="[Диапазон].[Вариант установки ПУ 2].[All]" allUniqueName="[Диапазон].[Вариант установки ПУ 2].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Диапазон 1].[Наименование РЭС]" caption="Наименование РЭС" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Наименование РЭС].[All]" allUniqueName="[Диапазон 1].[Наименование РЭС].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Опорная ПС]" caption="Опорная ПС" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Опорная ПС].[All]" allUniqueName="[Диапазон 1].[Опорная ПС].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Опорная ПС]" caption="Опорная ПС" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Опорная ПС].[All]" allUniqueName="[Диапазон 1].[Опорная ПС].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон 1].[Наименование ТП]" caption="Наименование ТП" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Наименование ТП].[All]" allUniqueName="[Диапазон 1].[Наименование ТП].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон 1].[Населенный пункт]" caption="Населенный пункт" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Населенный пункт].[All]" allUniqueName="[Диапазон 1].[Населенный пункт].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Диапазон 1].[Фидер 10кВ]" caption="Фидер 10кВ" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Фидер 10кВ].[All]" allUniqueName="[Диапазон 1].[Фидер 10кВ].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
@@ -2943,7 +2134,7 @@
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Неопрашиваемый]" caption="Сумма по столбцу Неопрашиваемый" measure="1" displayFolder="" measureGroup="Диапазон" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="3"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
@@ -2990,19 +2181,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{728B7C23-1B4D-4FA2-BA26-E3F83A1DA36E}" name="PivotTable1" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" grandTotalCaption="Итого" tag="f5fe1b96-3050-44ee-9f45-2b2476306268" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="1" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Наименование объекта" colHeaderCaption="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{728B7C23-1B4D-4FA2-BA26-E3F83A1DA36E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" grandTotalCaption="Итого" tag="f5fe1b96-3050-44ee-9f45-2b2476306268" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Наименование объекта" colHeaderCaption="2">
   <location ref="A2:F7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="3">
         <item n="В-1" x="0"/>
         <item n="В-2" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3017,10 +2202,16 @@
         <item x="0"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
-    <field x="1"/>
     <field x="4"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -3035,7 +2226,7 @@
   </rowItems>
   <colFields count="2">
     <field x="0"/>
-    <field x="2"/>
+    <field x="1"/>
   </colFields>
   <colItems count="5">
     <i>
@@ -3057,105 +2248,67 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="1" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="1" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="54">
-    <format dxfId="226">
+  <formats count="40">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="224">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="222">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="221">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="220">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="217">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="216">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="212">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="210">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="209">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="208">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="206">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="24">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="200">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="199">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3164,7 +2317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3173,43 +2326,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="16">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="191">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="189">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3218,7 +2365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3227,33 +2374,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="183">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3262,7 +2406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3271,33 +2415,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="177">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3306,7 +2447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -3315,26 +2456,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -3383,7 +2524,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="Стиль сводной таблицы 1" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="27"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
     <rowHierarchyUsage hierarchyUsage="20"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="2">
@@ -3676,13 +2817,16 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="5.140625" style="15"/>
+    <col min="1" max="1" width="25.85546875" style="15" customWidth="1"/>
+    <col min="2" max="17" width="5.85546875" style="15" customWidth="1"/>
+    <col min="18" max="21" width="6" style="15" customWidth="1"/>
+    <col min="22" max="25" width="5.140625" style="15" customWidth="1"/>
+    <col min="26" max="16384" width="5.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -3702,37 +2846,37 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:6" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="22" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" s="21" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -3741,13 +2885,13 @@
       <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
       <c r="F5" s="13">
@@ -3755,19 +2899,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="13">
@@ -3781,13 +2925,13 @@
       <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="13">
@@ -3853,7 +2997,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,обычный"
 Приложение №6</oddHeader>
